--- a/templates/prompt-framework-template.xlsx
+++ b/templates/prompt-framework-template.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71987CFC-3116-4B91-82A4-D4E747DC7124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2889EDE-5C01-481B-A752-70D4731201B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B2953451-CD9A-4F69-ABFC-3C67B9EBC769}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2953451-CD9A-4F69-ABFC-3C67B9EBC769}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier 1 Essentials" sheetId="1" r:id="rId1"/>
     <sheet name="Tier 2 Advanced Governance" sheetId="2" r:id="rId2"/>
-    <sheet name="Sector Templates" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="93">
   <si>
     <t>#</t>
   </si>
@@ -314,51 +313,6 @@
   </si>
   <si>
     <t>Format, storage, and maintenance procedures</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Pre-filled Example</t>
-  </si>
-  <si>
-    <t>Use Case</t>
-  </si>
-  <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
-    <t>[Copy from Tier 1 Healthcare column]</t>
-  </si>
-  <si>
-    <t>Patient Care &amp; Documentation</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>[Copy from Tier 1 Finance column]</t>
-  </si>
-  <si>
-    <t>Compliance &amp; Reporting</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>[Copy from Tier 1 Education column]</t>
-  </si>
-  <si>
-    <t>Learning Personalization</t>
-  </si>
-  <si>
-    <t>Government</t>
-  </si>
-  <si>
-    <t>"Process citizen service requests"</t>
-  </si>
-  <si>
-    <t>Public Service Automation</t>
   </si>
   <si>
     <t>Complete</t>
@@ -808,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC23D58-C4FB-48C5-8861-BBD22DD316B7}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="72" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -870,11 +824,11 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="str">
-        <f>IF(G2&lt;&gt;"", "✅", "❌")</f>
-        <v>❌</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H2:H11" si="0">IF(G2&lt;&gt;"", "✅", "❌")</f>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -895,11 +849,11 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="str">
-        <f>IF(G3&lt;&gt;"", "✅", "❌")</f>
-        <v>❌</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -920,11 +874,11 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="str">
-        <f>IF(G4&lt;&gt;"", "✅", "❌")</f>
-        <v>❌</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -945,11 +899,11 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="str">
-        <f>IF(G5&lt;&gt;"", "✅", "❌")</f>
-        <v>❌</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="79.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -970,11 +924,11 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="str">
-        <f>IF(G6&lt;&gt;"", "✅", "❌")</f>
-        <v>❌</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="92.4" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>❌</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -995,7 +949,7 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="str">
-        <f>IF(G7&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1020,7 +974,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="str">
-        <f>IF(G8&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1045,7 +999,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="str">
-        <f>IF(G9&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1070,7 +1024,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="str">
-        <f>IF(G10&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1095,15 +1049,19 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="str">
-        <f>IF(G11&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G12" s="2"/>
-      <c r="H12">
-        <f>'Tier 2 Advanced Governance'!E17</f>
-        <v>0</v>
+      <c r="H12" t="str">
+        <f>REPT("█", COUNTIF(H2:H11,"✅"))
+&amp; REPT("░", 10-COUNTIF(H2:H11,"✅"))
+&amp; " "
+&amp; ROUND(COUNTIF(H2:H11,"✅")/10*100,0)
+&amp; "%"</f>
+        <v>░░░░░░░░░░ 0%</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
@@ -1121,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BCB0E9-F67E-4D5E-BBD7-432214BA01E3}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,7 +1092,7 @@
     <col min="6" max="6" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,7 +1165,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="7" t="str">
-        <f>IF(E4&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" ref="F4:F16" si="0">IF(E4&lt;&gt;"", "✅", "❌")</f>
         <v>❌</v>
       </c>
     </row>
@@ -1226,7 +1184,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="7" t="str">
-        <f>IF(E5&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1245,7 +1203,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="7" t="str">
-        <f>IF(E6&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1264,7 +1222,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="7" t="str">
-        <f>IF(E7&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1283,7 +1241,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="7" t="str">
-        <f>IF(E8&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1302,7 +1260,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="7" t="str">
-        <f>IF(E9&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1321,7 +1279,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="7" t="str">
-        <f>IF(E10&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1340,7 +1298,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="7" t="str">
-        <f>IF(E11&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1359,7 +1317,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="7" t="str">
-        <f>IF(E12&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1378,7 +1336,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7" t="str">
-        <f>IF(E13&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1397,7 +1355,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="7" t="str">
-        <f>IF(E14&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1416,7 +1374,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="7" t="str">
-        <f>IF(E15&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
@@ -1435,14 +1393,18 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="7" t="str">
-        <f>IF(E16&lt;&gt;"", "✅", "❌")</f>
+        <f t="shared" si="0"/>
         <v>❌</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
       <c r="F17" t="str">
-        <f>REPT("█", COUNTIF(F2:F16,"✅")) &amp; REPT("░", 15-COUNTIF(F2:F16,"✅")) &amp; " " &amp; COUNTIF(F2:F16,"✅")/15*100 &amp; "%"</f>
+        <f>REPT("█", COUNTIF(F2:F16,"✅"))
+&amp; REPT("░", 15-COUNTIF(F2:F16,"✅"))
+&amp; " "
+&amp; ROUND(COUNTIF(F2:F16,"✅")/15*100,0)
+&amp; "%"</f>
         <v>░░░░░░░░░░░░░░░ 0%</v>
       </c>
     </row>
@@ -1458,79 +1420,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C67C6D8A-B296-486A-861D-4972AAA9E834}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="49.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/templates/prompt-framework-template.xlsx
+++ b/templates/prompt-framework-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2889EDE-5C01-481B-A752-70D4731201B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9B4BE-08AC-4D5C-9862-E5FC40428667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B2953451-CD9A-4F69-ABFC-3C67B9EBC769}"/>
   </bookViews>
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -399,11 +399,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -424,6 +435,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +777,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1080,7 +1094,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,7 +1160,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="7" t="str">
-        <f>IF(E2&lt;&gt;"", "✅", "❌")</f>
+        <f>IF(E3&lt;&gt;"", "✅", "❌")</f>
         <v>❌</v>
       </c>
     </row>
@@ -1399,7 +1413,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
-      <c r="F17" t="str">
+      <c r="F17" s="8" t="str">
         <f>REPT("█", COUNTIF(F2:F16,"✅"))
 &amp; REPT("░", 15-COUNTIF(F2:F16,"✅"))
 &amp; " "
